--- a/Datos/Anuario2024/130801_DifusionPublicacionesEscritas.xlsx
+++ b/Datos/Anuario2024/130801_DifusionPublicacionesEscritas.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8745" tabRatio="817" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8745" tabRatio="817"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="1 graf1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="0" sheetId="21" r:id="rId1"/>
+    <sheet name="1" sheetId="20" r:id="rId2"/>
+    <sheet name="1 graf1" sheetId="82" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
@@ -51,84 +57,175 @@
     <definedName name="_R8_1">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'1 graf1'!$A$1:$B$25</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t>Diarios (Lunes-sábado)</t>
+  </si>
+  <si>
+    <t>Levante-El Mercantil Valenciano</t>
+  </si>
+  <si>
+    <t>Levante-El Mercantil Valenciano. Domingo</t>
+  </si>
+  <si>
+    <t>Las Provincias. Domingo</t>
+  </si>
+  <si>
+    <t>Súper Deporte. Domingo</t>
+  </si>
+  <si>
+    <t>Semanal</t>
+  </si>
+  <si>
+    <t>Economía 3 (*)</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>El País Comunidad Valenciana</t>
+  </si>
+  <si>
+    <t>20 Minutos. Ed. València</t>
+  </si>
+  <si>
+    <t>El País Comunidad Valenciana. Domingo</t>
+  </si>
+  <si>
+    <t>Trimestral</t>
+  </si>
+  <si>
+    <t>Las Provincias</t>
+  </si>
+  <si>
+    <t>Valencia Fruits</t>
+  </si>
+  <si>
+    <t>Mensual</t>
+  </si>
+  <si>
+    <t>Súper Deporte</t>
+  </si>
+  <si>
+    <t>Marca Ed. València</t>
+  </si>
+  <si>
+    <t>La Razón Comunidad Valenciana y Región de Murcia</t>
+  </si>
+  <si>
+    <t>La Razón Comunidad Valenciana y Región de Murcia. Domingo</t>
+  </si>
+  <si>
+    <t>El Mundo Comunidad Valenciana. Domingo</t>
+  </si>
+  <si>
+    <t>El Mundo Comunidad Valenciana</t>
+  </si>
+  <si>
+    <t>Marca. Ed. València. Domingo</t>
+  </si>
+  <si>
+    <t>SOUL by Hello Valencia (*)</t>
+  </si>
+  <si>
+    <t>Spaincontract  (*)</t>
+  </si>
+  <si>
+    <t>Nota: (*) Tirada. (-)  Sin datos.</t>
+  </si>
+  <si>
+    <t>1. Difusión media de publicaciones impresas. 2022</t>
+  </si>
+  <si>
+    <t>DIFUSIÓN PUBLICACIONES IMPRESAS</t>
+  </si>
+  <si>
+    <t>El Sector del Habitat  (*)</t>
+  </si>
+  <si>
+    <t>Fuente: Oficina de Justificación de la Difusión. Economía 3. SOUL by Hello Valencia. Spaincontract. El Sector del Habitat.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -157,64 +254,64 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -222,6 +319,7 @@
     <cellStyle name="Normal 3" xfId="2"/>
     <cellStyle name="Normal 4" xfId="3"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -290,13 +388,91 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFFE397"/>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFFFBE3B"/>
+      <color rgb="FF800000"/>
+      <color rgb="FFFFBF61"/>
+      <color rgb="FFFFD88B"/>
+      <color rgb="FFFFE4AF"/>
+      <color rgb="FFFFCC66"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1905</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="401955" y="283845"/>
+          <a:ext cx="5019675" cy="3371850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -537,8 +713,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="7.3d"/>
       <sheetName val="7.3b"/>
@@ -5039,8 +5215,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -5740,505 +5916,427 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja47">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="41.85546875" customWidth="1" style="2" min="1" max="1"/>
+    <col min="1" max="1" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="2">
-      <c r="A1" s="26" t="inlineStr">
-        <is>
-          <t>DIFUSIÓN PUBLICACIONES IMPRESAS</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja44">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="52.140625" customWidth="1" style="2" min="1" max="1"/>
-    <col width="8.85546875" customWidth="1" style="1" min="2" max="2"/>
+    <col min="1" max="1" width="52.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="2">
-      <c r="A1" s="26" t="inlineStr">
-        <is>
-          <t>1. Difusión media de publicaciones impresas. 2022</t>
-        </is>
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>25</v>
       </c>
-      <c r="B1" s="12" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="7" t="n"/>
-      <c r="B2" s="12" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="2">
-      <c r="A3" s="8" t="n"/>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+      <c r="B1" s="12"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="12"/>
+    </row>
+    <row r="3" spans="1:2" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="2">
-      <c r="A4" s="7" t="inlineStr">
-        <is>
-          <t>Diarios (Lunes-sábado)</t>
-        </is>
+    <row r="4" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>0</v>
       </c>
-      <c r="B4" s="18" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="2">
-      <c r="A5" s="14" t="inlineStr">
-        <is>
-          <t>Las Provincias</t>
-        </is>
+      <c r="B4" s="18"/>
+    </row>
+    <row r="5" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>12</v>
       </c>
-      <c r="B5" s="9" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="2">
-      <c r="A6" s="13" t="inlineStr">
-        <is>
-          <t>Levante-El Mercantil Valenciano</t>
-        </is>
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>1</v>
       </c>
-      <c r="B6" s="6" t="n"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" s="2">
-      <c r="A7" s="14" t="inlineStr">
-        <is>
-          <t>El Mundo Comunidad Valenciana</t>
-        </is>
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>20</v>
       </c>
-      <c r="B7" s="9" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="2">
-      <c r="A8" s="13" t="inlineStr">
-        <is>
-          <t>El País Comunidad Valenciana</t>
-        </is>
+      <c r="B7" s="9"/>
+    </row>
+    <row r="8" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>8</v>
       </c>
-      <c r="B8" s="6" t="n"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" s="2">
-      <c r="A9" s="14" t="inlineStr">
-        <is>
-          <t>La Razón Comunidad Valenciana y Región de Murcia</t>
-        </is>
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>17</v>
       </c>
-      <c r="B9" s="17" t="n"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" s="2">
-      <c r="A10" s="13" t="inlineStr">
-        <is>
-          <t>Súper Deporte</t>
-        </is>
+      <c r="B9" s="17"/>
+    </row>
+    <row r="10" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>15</v>
       </c>
-      <c r="B10" s="6" t="n"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" s="2">
-      <c r="A11" s="14" t="inlineStr">
-        <is>
-          <t>Marca Ed. València</t>
-        </is>
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>16</v>
       </c>
-      <c r="B11" s="9" t="n"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" s="2">
-      <c r="A12" s="13" t="inlineStr">
-        <is>
-          <t>20 Minutos. Ed. València</t>
-        </is>
+      <c r="B11" s="9"/>
+    </row>
+    <row r="12" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>9</v>
       </c>
-      <c r="B12" s="6" t="n"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" s="2">
-      <c r="A13" s="16" t="inlineStr">
-        <is>
-          <t>Semanal</t>
-        </is>
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>5</v>
       </c>
-      <c r="B13" s="17" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="2">
-      <c r="A14" s="13" t="inlineStr">
-        <is>
-          <t>Valencia Fruits</t>
-        </is>
+      <c r="B13" s="17"/>
+    </row>
+    <row r="14" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>13</v>
       </c>
-      <c r="B14" s="6" t="n"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" s="2">
-      <c r="A15" s="14" t="inlineStr">
-        <is>
-          <t>Levante-El Mercantil Valenciano. Domingo</t>
-        </is>
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>2</v>
       </c>
-      <c r="B15" s="9" t="n"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="2">
-      <c r="A16" s="13" t="inlineStr">
-        <is>
-          <t>Las Provincias. Domingo</t>
-        </is>
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>3</v>
       </c>
-      <c r="B16" s="6" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="2">
-      <c r="A17" s="14" t="inlineStr">
-        <is>
-          <t>El Mundo Comunidad Valenciana. Domingo</t>
-        </is>
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>19</v>
       </c>
-      <c r="B17" s="9" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="2">
-      <c r="A18" s="13" t="inlineStr">
-        <is>
-          <t>El País Comunidad Valenciana. Domingo</t>
-        </is>
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>10</v>
       </c>
-      <c r="B18" s="6" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="2">
-      <c r="A19" s="14" t="inlineStr">
-        <is>
-          <t>La Razón Comunidad Valenciana y Región de Murcia. Domingo</t>
-        </is>
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>18</v>
       </c>
-      <c r="B19" s="17" t="n"/>
-    </row>
-    <row r="20" ht="15" customHeight="1" s="2">
-      <c r="A20" s="13" t="inlineStr">
-        <is>
-          <t>Súper Deporte. Domingo</t>
-        </is>
+      <c r="B19" s="17"/>
+    </row>
+    <row r="20" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>4</v>
       </c>
-      <c r="B20" s="6" t="n"/>
-    </row>
-    <row r="21" ht="15" customHeight="1" s="2">
-      <c r="A21" s="14" t="inlineStr">
-        <is>
-          <t>Marca. Ed. València. Domingo</t>
-        </is>
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>21</v>
       </c>
-      <c r="B21" s="9" t="n"/>
-    </row>
-    <row r="22" ht="15" customHeight="1" s="2">
-      <c r="A22" s="7" t="inlineStr">
-        <is>
-          <t>Mensual</t>
-        </is>
+      <c r="B21" s="9"/>
+    </row>
+    <row r="22" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>14</v>
       </c>
-      <c r="B22" s="18" t="n"/>
-    </row>
-    <row r="23" ht="15" customHeight="1" s="2">
-      <c r="A23" s="14" t="inlineStr">
-        <is>
-          <t>Economía 3 (*)</t>
-        </is>
+      <c r="B22" s="18"/>
+    </row>
+    <row r="23" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>6</v>
       </c>
-      <c r="B23" s="9" t="n"/>
-    </row>
-    <row r="24" ht="15" customHeight="1" s="2">
-      <c r="A24" s="13" t="inlineStr">
-        <is>
-          <t>SOUL by Hello Valencia (*)</t>
-        </is>
+      <c r="B23" s="9"/>
+    </row>
+    <row r="24" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>22</v>
       </c>
-      <c r="B24" s="6" t="n"/>
-    </row>
-    <row r="25" ht="15" customHeight="1" s="2">
-      <c r="A25" s="16" t="inlineStr">
-        <is>
-          <t>Trimestral</t>
-        </is>
+      <c r="B24" s="6"/>
+    </row>
+    <row r="25" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
+        <v>11</v>
       </c>
-      <c r="B25" s="9" t="n"/>
-    </row>
-    <row r="26" ht="15" customHeight="1" s="2">
-      <c r="A26" s="13" t="inlineStr">
-        <is>
-          <t>El Sector del Habitat  (*)</t>
-        </is>
+      <c r="B25" s="9"/>
+    </row>
+    <row r="26" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
+        <v>27</v>
       </c>
-      <c r="B26" s="6" t="n"/>
-    </row>
-    <row r="27" ht="15" customHeight="1" s="2">
-      <c r="A27" s="14" t="inlineStr">
-        <is>
-          <t>Spaincontract  (*)</t>
-        </is>
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>23</v>
       </c>
-      <c r="B27" s="17" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="15" t="inlineStr">
-        <is>
-          <t>Nota: (*) Tirada. (-)  Sin datos.</t>
-        </is>
+      <c r="B27" s="17"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>24</v>
       </c>
-      <c r="B28" s="11" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="15" t="inlineStr">
-        <is>
-          <t>Fuente: Oficina de Justificación de la Difusión. Economía 3. SOUL by Hello Valencia. Spaincontract. El Sector del Habitat.</t>
-        </is>
+      <c r="B28" s="11"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="6" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="6" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="6" t="n"/>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="6"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="6"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja45">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="5.5703125" customWidth="1" style="22" min="1" max="1"/>
-    <col width="75.7109375" customWidth="1" style="22" min="2" max="2"/>
-    <col width="11.42578125" customWidth="1" style="22" min="3" max="3"/>
-    <col width="28.42578125" customWidth="1" style="23" min="4" max="4"/>
-    <col width="11.42578125" customWidth="1" style="23" min="5" max="5"/>
-    <col width="11.42578125" customWidth="1" style="23" min="6" max="14"/>
-    <col width="11.42578125" customWidth="1" style="22" min="15" max="16384"/>
+    <col min="1" max="1" width="5.5703125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="22"/>
+    <col min="4" max="4" width="28.42578125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="23"/>
+    <col min="6" max="14" width="11.42578125" style="21"/>
+    <col min="15" max="16384" width="11.42578125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="n"/>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="19" t="n"/>
-      <c r="D1" s="20" t="n"/>
-      <c r="E1" s="23" t="n"/>
-      <c r="N1" s="22" t="n"/>
-    </row>
-    <row r="2">
-      <c r="E2" s="20" t="n"/>
-    </row>
-    <row r="3">
-      <c r="E3" s="20" t="n"/>
-    </row>
-    <row r="4">
-      <c r="E4" s="24" t="n"/>
-    </row>
-    <row r="5">
-      <c r="D5" s="13" t="n"/>
-      <c r="E5" s="6" t="n"/>
-    </row>
-    <row r="6">
-      <c r="D6" s="13" t="n"/>
-      <c r="E6" s="6" t="n"/>
-    </row>
-    <row r="7">
-      <c r="D7" s="13" t="n"/>
-      <c r="E7" s="6" t="n"/>
-    </row>
-    <row r="8">
-      <c r="D8" s="13" t="n"/>
-      <c r="E8" s="6" t="n"/>
-    </row>
-    <row r="9">
-      <c r="D9" s="13" t="n"/>
-      <c r="E9" s="6" t="n"/>
-    </row>
-    <row r="10">
-      <c r="D10" s="13" t="n"/>
-      <c r="E10" s="6" t="n"/>
-    </row>
-    <row r="11">
-      <c r="D11" s="13" t="n"/>
-      <c r="E11" s="6" t="n"/>
-    </row>
-    <row r="12">
-      <c r="D12" s="13" t="n"/>
-      <c r="E12" s="6" t="n"/>
-    </row>
-    <row r="13">
-      <c r="D13" s="13" t="n"/>
-      <c r="E13" s="6" t="n"/>
-    </row>
-    <row r="14">
-      <c r="D14" s="13" t="n"/>
-      <c r="E14" s="6" t="n"/>
-    </row>
-    <row r="15">
-      <c r="D15" s="25" t="n"/>
-      <c r="E15" s="24" t="n"/>
-    </row>
-    <row r="27">
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="6" t="n"/>
-    </row>
-    <row r="28">
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="6" t="n"/>
-    </row>
-    <row r="29">
-      <c r="D29" s="13" t="n"/>
-      <c r="E29" s="6" t="n"/>
-    </row>
-    <row r="30">
-      <c r="D30" s="13" t="n"/>
-      <c r="E30" s="6" t="n"/>
-    </row>
-    <row r="31">
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="6" t="n"/>
-    </row>
-    <row r="32">
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="6" t="n"/>
-    </row>
-    <row r="33">
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="6" t="n"/>
-    </row>
-    <row r="34">
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="6" t="n"/>
-    </row>
-    <row r="35">
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="6" t="n"/>
-    </row>
-    <row r="36">
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="6" t="n"/>
-    </row>
-    <row r="37">
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="6" t="n"/>
-    </row>
-    <row r="38">
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="6" t="n"/>
-    </row>
-    <row r="39">
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="6" t="n"/>
-    </row>
-    <row r="40">
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="6" t="n"/>
-    </row>
-    <row r="41">
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="6" t="n"/>
-    </row>
-    <row r="42">
-      <c r="D42" s="13" t="n"/>
-      <c r="E42" s="6" t="n"/>
-    </row>
-    <row r="43">
-      <c r="D43" s="13" t="n"/>
-      <c r="E43" s="6" t="n"/>
-    </row>
-    <row r="44">
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="6" t="n"/>
-    </row>
-    <row r="45">
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="6" t="n"/>
-    </row>
-    <row r="46">
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="6" t="n"/>
-    </row>
-    <row r="47">
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="6" t="n"/>
-    </row>
-    <row r="48">
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="6" t="n"/>
-    </row>
-    <row r="49">
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="6" t="n"/>
-    </row>
-    <row r="50">
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="6" t="n"/>
-    </row>
-    <row r="51">
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="6" t="n"/>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+      <c r="N1" s="22"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E4" s="24"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D5" s="13"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D6" s="13"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D7" s="13"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D8" s="13"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D9" s="13"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D10" s="13"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D11" s="13"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D12" s="13"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D13" s="13"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D14" s="13"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D15" s="25"/>
+      <c r="E15" s="24"/>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D27" s="13"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D28" s="13"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D29" s="13"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D30" s="13"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D31" s="13"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D32" s="13"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D33" s="13"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D34" s="13"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D35" s="13"/>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D36" s="13"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D37" s="13"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D38" s="13"/>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D39" s="13"/>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D40" s="13"/>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D41" s="13"/>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D42" s="13"/>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D43" s="13"/>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D44" s="13"/>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D45" s="13"/>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D46" s="13"/>
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D47" s="13"/>
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D48" s="13"/>
+      <c r="E48" s="6"/>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D49" s="13"/>
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D50" s="13"/>
+      <c r="E50" s="6"/>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D51" s="13"/>
+      <c r="E51" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>